--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096919F-94BF-4C67-9A5F-CD7F06D0F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8987AEE1-DE32-4E52-A8B9-DE03BF6A4D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
-    <sheet name="ProyectadaTotal" sheetId="4" r:id="rId2"/>
+    <sheet name="DinamicaDemografica" sheetId="5" r:id="rId2"/>
+    <sheet name="ProyectadaTotal" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -293,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Logarítmica</t>
   </si>
@@ -473,13 +474,132 @@
   </si>
   <si>
     <t>PTFem</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <r>
+      <t>Nacen (N)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> →</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mueren (D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> →</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">← </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inmigran (I)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">← </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Emigran (E)</t>
+    </r>
+  </si>
+  <si>
+    <t>Saldo migratorio (MN = I - E)</t>
+  </si>
+  <si>
+    <t>Saldo vegetativo (CV = N - D)</t>
+  </si>
+  <si>
+    <t>Saldo o crecimiento total (CT = CV + MN)</t>
+  </si>
+  <si>
+    <t>Población inicial (Po)</t>
+  </si>
+  <si>
+    <t>Población final (Pr = Po + CT)</t>
+  </si>
+  <si>
+    <t>Población promedio (PM = (Po + Pr) / 2)</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento total por cada 1000 habitantes,  TCT = (CT / PM) * 1000</t>
+  </si>
+  <si>
+    <t>Tasas</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento vegetativo por cada 1000 habitantes, TCV = TBN - TBM</t>
+  </si>
+  <si>
+    <t>Tasa bruta de natalidad por cada 1000 habitantes, TBN = (N / PM) * 1000</t>
+  </si>
+  <si>
+    <t>Tasa bruta de mortalidad por cada 1000 habitantes, TBM = (D / PM) * 1000</t>
+  </si>
+  <si>
+    <t>Tasa de inmigración por cada 1000 habitantes, TI = (I / PM) * 1000</t>
+  </si>
+  <si>
+    <t>Tasa de emigración por cada 1000 habitantes, TE = (E / PM) * 1000</t>
+  </si>
+  <si>
+    <t>Tasa de migración neta por cada 1000 habitantes, TMN = TI - TE</t>
+  </si>
+  <si>
+    <t>Ejemplo de dinámica demográfica municipal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,8 +655,58 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +719,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -831,11 +1007,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -968,6 +1162,111 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3459,9 +3758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -4191,10 +4490,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF85B67-A9CB-4F86-9CEB-D63DBE20F700}">
+  <dimension ref="B2:G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.69140625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="16.07421875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="65"/>
+    <col min="4" max="4" width="5" style="65" customWidth="1"/>
+    <col min="5" max="5" width="18.3828125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="65"/>
+    <col min="7" max="7" width="16.07421875" style="65" customWidth="1"/>
+    <col min="8" max="8" width="2.69140625" style="65" customWidth="1"/>
+    <col min="9" max="16384" width="9.23046875" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+    </row>
+    <row r="4" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="B4" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="45">
+        <v>342</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47">
+        <v>976</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="B5" s="66"/>
+      <c r="C5" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="2:7" ht="26.6" x14ac:dyDescent="0.4">
+      <c r="B6" s="66"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="50">
+        <v>128968</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="B7" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="51">
+        <v>64</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53">
+        <v>342</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="55">
+        <f>C4-C7</f>
+        <v>278</v>
+      </c>
+      <c r="F9" s="54">
+        <f>F4-F7</f>
+        <v>634</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="C10" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="C12" s="60">
+        <f>C9+F9</f>
+        <v>912</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="61"/>
+    </row>
+    <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="C13" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="54" x14ac:dyDescent="0.4">
+      <c r="B14" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="73">
+        <f>D6+C12</f>
+        <v>129880</v>
+      </c>
+      <c r="F14" s="74">
+        <f>(D6+C14)/2</f>
+        <v>129424</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+    </row>
+    <row r="16" spans="2:7" s="77" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+    </row>
+    <row r="17" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B17" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="79">
+        <f>(C12/F14)*1000</f>
+        <v>7.0466065026579301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="79">
+        <f>(C4/F14)*1000</f>
+        <v>2.6424774384967242</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="79">
+        <f>(C7/F14)*1000</f>
+        <v>0.49449870194090745</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="79">
+        <f>G18-G19</f>
+        <v>2.1479787365558169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="79">
+        <f>(F4/F14)*1000</f>
+        <v>7.5411052045988383</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="79">
+        <f>(F7/F14)*1000</f>
+        <v>2.6424774384967242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="79">
+        <f>G21-G22</f>
+        <v>4.8986277661021145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8987AEE1-DE32-4E52-A8B9-DE03BF6A4D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F585871-70F8-400F-B0FC-FFD47B72EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -547,24 +547,12 @@
     </r>
   </si>
   <si>
-    <t>Saldo migratorio (MN = I - E)</t>
-  </si>
-  <si>
-    <t>Saldo vegetativo (CV = N - D)</t>
-  </si>
-  <si>
     <t>Saldo o crecimiento total (CT = CV + MN)</t>
   </si>
   <si>
     <t>Población inicial (Po)</t>
   </si>
   <si>
-    <t>Población final (Pr = Po + CT)</t>
-  </si>
-  <si>
-    <t>Población promedio (PM = (Po + Pr) / 2)</t>
-  </si>
-  <si>
     <t>Tasa de crecimiento total por cada 1000 habitantes,  TCT = (CT / PM) * 1000</t>
   </si>
   <si>
@@ -590,6 +578,22 @@
   </si>
   <si>
     <t>Ejemplo de dinámica demográfica municipal</t>
+  </si>
+  <si>
+    <t>Población final
+(Pr = Po + CT)</t>
+  </si>
+  <si>
+    <t>Población promedio
+(PM = (Po + Pr) / 2)</t>
+  </si>
+  <si>
+    <t>Saldo migratorio
+(MN = I - E)</t>
+  </si>
+  <si>
+    <t>Saldo vegetativo
+(CV = N - D)</t>
   </si>
 </sst>
 </file>
@@ -1259,13 +1263,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3758,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
@@ -4495,25 +4499,25 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.69140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="16.07421875" style="65" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" style="65" customWidth="1"/>
     <col min="3" max="3" width="9.23046875" style="65"/>
     <col min="4" max="4" width="5" style="65" customWidth="1"/>
     <col min="5" max="5" width="18.3828125" style="65" customWidth="1"/>
     <col min="6" max="6" width="9.23046875" style="65"/>
-    <col min="7" max="7" width="16.07421875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="20.4609375" style="65" customWidth="1"/>
     <col min="8" max="8" width="2.69140625" style="65" customWidth="1"/>
     <col min="9" max="16384" width="9.23046875" style="65"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -4540,7 +4544,7 @@
     <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.4">
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
@@ -4584,7 +4588,7 @@
     </row>
     <row r="9" spans="2:7" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="57" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C9" s="55">
         <f>C4-C7</f>
@@ -4595,7 +4599,7 @@
         <v>634</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -4610,7 +4614,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C11" s="58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -4637,7 +4641,7 @@
     </row>
     <row r="14" spans="2:7" ht="54" x14ac:dyDescent="0.4">
       <c r="B14" s="72" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C14" s="73">
         <f>D6+C12</f>
@@ -4648,7 +4652,7 @@
         <v>129424</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -4657,102 +4661,102 @@
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
     </row>
-    <row r="16" spans="2:7" s="77" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B16" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+    <row r="16" spans="2:7" s="78" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B17" s="75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="75"/>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
-      <c r="G17" s="79">
+      <c r="G17" s="77">
         <f>(C12/F14)*1000</f>
         <v>7.0466065026579301</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B18" s="75" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="75"/>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
-      <c r="G18" s="79">
+      <c r="G18" s="77">
         <f>(C4/F14)*1000</f>
         <v>2.6424774384967242</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B19" s="75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
-      <c r="G19" s="79">
+      <c r="G19" s="77">
         <f>(C7/F14)*1000</f>
         <v>0.49449870194090745</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B20" s="75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="75"/>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
-      <c r="G20" s="79">
+      <c r="G20" s="77">
         <f>G18-G19</f>
         <v>2.1479787365558169</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="75" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
-      <c r="G21" s="79">
+      <c r="G21" s="77">
         <f>(F4/F14)*1000</f>
         <v>7.5411052045988383</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="75" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="75"/>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
-      <c r="G22" s="79">
+      <c r="G22" s="77">
         <f>(F7/F14)*1000</f>
         <v>2.6424774384967242</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="75" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="75"/>
       <c r="E23" s="75"/>
       <c r="F23" s="75"/>
-      <c r="G23" s="79">
+      <c r="G23" s="77">
         <f>G21-G22</f>
         <v>4.8986277661021145</v>
       </c>
@@ -4780,7 +4784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F585871-70F8-400F-B0FC-FFD47B72EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9307E19F-4D63-43DF-809D-A0846A576EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
-    <sheet name="DinamicaDemografica" sheetId="5" r:id="rId2"/>
-    <sheet name="ProyectadaTotal" sheetId="4" r:id="rId3"/>
+    <sheet name="CensalChart" sheetId="7" r:id="rId2"/>
+    <sheet name="DinamicaDemografica" sheetId="5" r:id="rId3"/>
+    <sheet name="ProyectadaTotal" sheetId="4" r:id="rId4"/>
+    <sheet name="ProyectadaTotalChart" sheetId="8" r:id="rId5"/>
+    <sheet name="PoblacionGIS" sheetId="6" r:id="rId6"/>
+    <sheet name="PoblacionGISChart" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -294,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>Logarítmica</t>
   </si>
@@ -303,9 +307,6 @@
   </si>
   <si>
     <t>Fuente</t>
-  </si>
-  <si>
-    <t>Dane</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -342,9 +343,6 @@
   </si>
   <si>
     <t>Municipio</t>
-  </si>
-  <si>
-    <t>Proyectado</t>
   </si>
   <si>
     <t>Exponencial</t>
@@ -392,9 +390,6 @@
     <t>1. Análisis de tendencias</t>
   </si>
   <si>
-    <t>Etiquetas</t>
-  </si>
-  <si>
     <t>Tendencias y constantes</t>
   </si>
   <si>
@@ -434,25 +429,13 @@
     <t>PT13_18</t>
   </si>
   <si>
-    <t>PT15-64</t>
-  </si>
-  <si>
-    <t>PT65Max</t>
-  </si>
-  <si>
     <t>PM7_12</t>
   </si>
   <si>
     <t>PM13_18</t>
   </si>
   <si>
-    <t>PM15-64</t>
-  </si>
-  <si>
     <t>PM0_6</t>
-  </si>
-  <si>
-    <t>PM65Max</t>
   </si>
   <si>
     <t>PF0_6</t>
@@ -462,12 +445,6 @@
   </si>
   <si>
     <t>PF13_18</t>
-  </si>
-  <si>
-    <t>PF15-64</t>
-  </si>
-  <si>
-    <t>PF65Max</t>
   </si>
   <si>
     <t>PTMasc</t>
@@ -595,13 +572,46 @@
     <t>Saldo vegetativo
 (CV = N - D)</t>
   </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>Sobre ajuste</t>
+  </si>
+  <si>
+    <t>PT15_64</t>
+  </si>
+  <si>
+    <t>PM15_64</t>
+  </si>
+  <si>
+    <t>PF15_64</t>
+  </si>
+  <si>
+    <t>Etiquetas en gráfica</t>
+  </si>
+  <si>
+    <t>DANE</t>
+  </si>
+  <si>
+    <t>Proyectada</t>
+  </si>
+  <si>
+    <t>PT60Max</t>
+  </si>
+  <si>
+    <t>PM60Max</t>
+  </si>
+  <si>
+    <t>PF60Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -730,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -989,17 +999,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1027,6 +1026,39 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1116,18 +1148,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1149,6 +1169,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1167,110 +1292,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,15 +1338,23 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>ProyectadaTotal!$B$32</c:f>
+          <c:f>ProyectadaTotal!$B$34</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Dane - Población censal Municipio y población proyectada a 50 años</c:v>
+              <c:v>DANE - Población censal municipal</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39969088940106778"/>
+          <c:y val="1.2110364517204108E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1348,10 +1388,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11104276380890028"/>
-          <c:y val="0.11172953542592912"/>
-          <c:w val="0.85528713127619305"/>
-          <c:h val="0.7750241588903789"/>
+          <c:x val="7.1605119667789055E-2"/>
+          <c:y val="6.7324885638903584E-2"/>
+          <c:w val="0.89472473907914352"/>
+          <c:h val="0.81942890254509959"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1362,1067 +1402,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ProyectadaTotal!$E$17</c:f>
+              <c:f>Censal!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProLineal</c:v>
+                  <c:v>PTotal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$E$18:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>104463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109807</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>115152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120496</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125841</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>131185</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>136529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>141874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>147218</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>152563</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>157907</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$F$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProPol2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$F$18:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>130708</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143634</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>157201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>171410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>186260</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201751</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>217884</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>234658</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>252073</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>288828</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$G$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProPol3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$G$18:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>133483</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148170</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>163883</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180654</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198514</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>217493</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>237623</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>258934</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>281458</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>305225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>330265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$H$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProPol4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$H$18:$H$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>131597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>154772</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>175942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>185149</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>193064</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>199381</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>203776</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>205903</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>205397</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$I$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProPol5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$I$18:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>131579</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>154585</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>175346</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>184212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>191663</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>197366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200966</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>202083</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200313</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$J$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProPol6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$J$18:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>131561</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143158</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>154394</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>174731</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>183241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190208</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>195269</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>198035</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>198088</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>194982</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$K$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProLog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$K$18:$K$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>103735</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>108905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>114063</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119207</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124339</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>129459</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>134566</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>139660</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>144742</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>149812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>154869</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$L$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProPot</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$L$18:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>138495</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>158324</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>180932</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>206701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>236062</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>269507</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>307590</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>350942</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400276</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>456398</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>520225</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ProyectadaTotal!$M$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ProExp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ProyectadaTotal!$M$18:$M$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>140562</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>161350</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>185211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>212602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>244043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>280134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>321563</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>369118</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>423706</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>486367</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>558295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7984-4CE9-9552-3917702DA56E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>Censal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2430,13 +1417,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
-              <a:headEnd type="oval" w="sm" len="sm"/>
-              <a:tailEnd type="triangle" w="sm" len="lg"/>
+              <a:headEnd type="none" w="sm" len="sm"/>
+              <a:tailEnd type="none" w="sm" len="sm"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -2451,7 +1448,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2578,7 +1575,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7984-4CE9-9552-3917702DA56E}"/>
+              <c16:uniqueId val="{00000000-F4B0-49B4-880C-F3892B737B48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2597,6 +1594,8 @@
         <c:axId val="663400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2020"/>
+          <c:min val="1900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2620,7 +1619,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2649,7 +1648,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -2681,7 +1680,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2724,7 +1723,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2759,7 +1758,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -2772,7 +1771,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2791,7 +1790,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2821,10 +1820,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.126780373232696"/>
-          <c:y val="0.13676714168331361"/>
-          <c:w val="0.10623303332159176"/>
-          <c:h val="0.46572405260980942"/>
+          <c:x val="8.7342743884879392E-2"/>
+          <c:y val="9.438090211408505E-2"/>
+          <c:w val="7.5961766715625309E-2"/>
+          <c:h val="5.6347222222222222E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2842,7 +1841,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2881,7 +1880,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000">
+        <a:defRPr sz="1100">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -2892,15 +1891,2337 @@
       <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>ProyectadaTotal!$B$32</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>DANE - Población censal Municipio y población proyectada a 50 años con diferentes tendencias</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.094480305121253E-2"/>
+          <c:y val="6.9351170704609222E-2"/>
+          <c:w val="0.88538511457614932"/>
+          <c:h val="0.85574493143823971"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProLineal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$E$19:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>104463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProPol2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$F$19:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>130708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>288828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProPol3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$G$19:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>133483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>258934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>281458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProPol4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$H$19:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>131597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProPol5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$I$19:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>131579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProPol6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$J$19:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>131561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProLog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$K$19:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>103735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139660</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProPot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$L$19:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>138495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>269507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>307590</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>456398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>520225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ProyectadaTotal!$M$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProExp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ProyectadaTotal!$M$19:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>140562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>369118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>423706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>486367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>558295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Censal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none" w="sm" len="sm"/>
+              <a:tailEnd type="none" w="sm" len="sm"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Censal!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Censal!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4271-4B8C-B6A9-4BA10104E465}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663400352"/>
+        <c:axId val="663400832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663400352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663400832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Población</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4228120485663263E-2"/>
+          <c:y val="8.8334680797241008E-2"/>
+          <c:w val="9.7930170603877237E-2"/>
+          <c:h val="0.28612045437499922"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>ProyectadaTotal!$B$33</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>DANE - Población censal Municipio y población proyectada a 50 para el ajuste seleccionado</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.094480305121253E-2"/>
+          <c:y val="6.9351170704609222E-2"/>
+          <c:w val="0.88538511457614932"/>
+          <c:h val="0.85574493143823971"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PoblacionGIS!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PTotal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none" w="sm" len="sm"/>
+              <a:tailEnd type="none" w="sm" len="sm"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PoblacionGIS!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PoblacionGIS!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143634</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>157201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171410</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>186260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>201751</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>217884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>234658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>252073</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270130</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>288828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5856-43A4-86B4-4B0E8EF8794C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663400352"/>
+        <c:axId val="663400832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663400352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663400832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Población</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663400352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6303841988887686E-2"/>
+          <c:y val="8.4298645036057371E-2"/>
+          <c:w val="7.3021512565183994E-2"/>
+          <c:h val="4.7994344465164852E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3456,31 +4777,1091 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7719926C-FDFD-4B6F-9591-D15E2C7B4756}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B74D3F2C-D5F1-41AE-ACE4-DFC0B9A95345}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>198781</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>704086</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>4465298</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12237044" cy="6292131"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056662FA-2224-7CAA-E1D4-12B6C7B2237A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F492B9D6-C519-36EA-863F-98A18A8884C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3493,7 +5874,73 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12236709" cy="6293304"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5042FF-A425-4B26-20E6-D41A21F20758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12236709" cy="6293304"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D4F964-2B94-23E4-A3A2-70F68F0212E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3764,7 +6211,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -3788,72 +6235,72 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="T1" s="13" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12">
         <v>1905</v>
@@ -3882,7 +6329,7 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="str">
         <f>$A$2</f>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B3" s="14" t="str">
         <f>$B$2</f>
@@ -3915,7 +6362,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="str">
         <f t="shared" ref="A4:A12" si="0">$A$2</f>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B4" s="14" t="str">
         <f t="shared" ref="B4:B12" si="1">$B$2</f>
@@ -3948,7 +6395,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B5" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3981,7 +6428,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B6" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4014,7 +6461,7 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B7" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4047,7 +6494,7 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4080,7 +6527,7 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B9" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4113,7 +6560,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B10" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4146,7 +6593,7 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B11" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4179,7 +6626,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Dane</v>
+        <v>DANE</v>
       </c>
       <c r="B12" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4497,277 +6944,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF85B67-A9CB-4F86-9CEB-D63DBE20F700}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="20.4609375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" style="65"/>
-    <col min="4" max="4" width="5" style="65" customWidth="1"/>
-    <col min="5" max="5" width="18.3828125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="9.23046875" style="65"/>
-    <col min="7" max="7" width="20.4609375" style="65" customWidth="1"/>
-    <col min="8" max="8" width="2.69140625" style="65" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="65"/>
+    <col min="1" max="1" width="2.69140625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="47"/>
+    <col min="4" max="4" width="5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="18.3828125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="47"/>
+    <col min="7" max="7" width="20.4609375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="2.69140625" style="47" customWidth="1"/>
+    <col min="9" max="16384" width="9.23046875" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="B2" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="4" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="B4" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="45">
+      <c r="B4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="35">
         <v>342</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37">
         <v>976</v>
       </c>
-      <c r="G4" s="65" t="s">
-        <v>63</v>
+      <c r="G4" s="47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="B5" s="66"/>
-      <c r="C5" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="2:7" ht="26.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="66"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="50">
+      <c r="B6" s="48"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="62">
         <v>128968</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="B7" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="B7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="40">
         <v>64</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42">
         <v>342</v>
       </c>
-      <c r="G7" s="65" t="s">
-        <v>64</v>
+      <c r="G7" s="47" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67" t="s">
-        <v>60</v>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="55">
+      <c r="B9" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="44">
         <f>C4-C7</f>
         <v>278</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="43">
         <f>F4-F7</f>
         <v>634</v>
       </c>
-      <c r="G9" s="56" t="s">
-        <v>78</v>
+      <c r="G9" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C10" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67" t="s">
-        <v>60</v>
+      <c r="C10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="59"/>
+      <c r="C11" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="C12" s="60">
+      <c r="C12" s="59">
         <f>C9+F9</f>
         <v>912</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="61"/>
     </row>
     <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C13" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="54" x14ac:dyDescent="0.4">
-      <c r="B14" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="73">
+      <c r="C13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.4">
+      <c r="B14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="52">
         <f>D6+C12</f>
         <v>129880</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="53">
         <f>(D6+C14)/2</f>
         <v>129424</v>
       </c>
-      <c r="G14" s="71" t="s">
-        <v>77</v>
+      <c r="G14" s="50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-    </row>
-    <row r="16" spans="2:7" s="78" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B16" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-    </row>
-    <row r="17" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B17" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="77">
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+    </row>
+    <row r="16" spans="2:7" s="56" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B17" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="55">
         <f>(C12/F14)*1000</f>
         <v>7.0466065026579301</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B18" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="77">
+    <row r="18" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="55">
         <f>(C4/F14)*1000</f>
         <v>2.6424774384967242</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B19" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="77">
+    <row r="19" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="55">
         <f>(C7/F14)*1000</f>
         <v>0.49449870194090745</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="76" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B20" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="77">
+    <row r="20" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="55">
         <f>G18-G19</f>
         <v>2.1479787365558169</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="77">
+      <c r="B21" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="55">
         <f>(F4/F14)*1000</f>
         <v>7.5411052045988383</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="77">
+      <c r="B22" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="55">
         <f>(F7/F14)*1000</f>
         <v>2.6424774384967242</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="77">
+      <c r="B23" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="55">
         <f>G21-G22</f>
         <v>4.8986277661021145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
@@ -4775,6 +7217,11 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4784,8 +7231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -4807,34 +7254,34 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="40"/>
+      <c r="B3" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="71"/>
       <c r="D3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>0</v>
@@ -4843,14 +7290,14 @@
         <v>1</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="32" t="s">
-        <v>18</v>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="26" cm="1">
         <f t="array" ref="E4">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1},TRUE,TRUE),1,1)</f>
@@ -4890,10 +7337,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="32" t="s">
-        <v>19</v>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="26" cm="1">
         <f t="array" ref="E5">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1},TRUE,TRUE),1,2)</f>
@@ -4933,10 +7380,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="32" t="s">
-        <v>20</v>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" cm="1">
@@ -4964,10 +7411,10 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="32" t="s">
-        <v>21</v>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -4992,10 +7439,10 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="32" t="s">
-        <v>22</v>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -5017,10 +7464,10 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="32" t="s">
-        <v>23</v>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -5039,10 +7486,10 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="32" t="s">
-        <v>24</v>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -5058,314 +7505,289 @@
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="34" cm="1">
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="30" cm="1">
         <f t="array" ref="E11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1},TRUE,TRUE),3,1)</f>
         <v>0.86416229902881492</v>
       </c>
-      <c r="F11" s="34" cm="1">
+      <c r="F11" s="30" cm="1">
         <f t="array" ref="F11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2},TRUE,TRUE),3,1)</f>
         <v>0.99578169141706463</v>
       </c>
-      <c r="G11" s="34" cm="1">
+      <c r="G11" s="30" cm="1">
         <f t="array" ref="G11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3},TRUE,TRUE),3,1)</f>
         <v>0.99727079529667062</v>
       </c>
-      <c r="H11" s="34" cm="1">
+      <c r="H11" s="30" cm="1">
         <f t="array" ref="H11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4},TRUE,TRUE),3,1)</f>
         <v>0.99835031110587535</v>
       </c>
-      <c r="I11" s="34" cm="1">
+      <c r="I11" s="30" cm="1">
         <f t="array" ref="I11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),3,1)</f>
         <v>0.99835375871367793</v>
       </c>
-      <c r="J11" s="34" cm="1">
+      <c r="J11" s="30" cm="1">
         <f t="array" ref="J11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),3,1)</f>
         <v>0.99835710106693354</v>
       </c>
-      <c r="K11" s="34" cm="1">
+      <c r="K11" s="30" cm="1">
         <f t="array" ref="K11">INDEX(LINEST(Censal!D2:D12,LN(Censal!C2:C12)^{1},TRUE,TRUE),3,1)</f>
         <v>0.85852442999500456</v>
       </c>
-      <c r="L11" s="34" cm="1">
+      <c r="L11" s="30" cm="1">
         <f t="array" ref="L11">INDEX(LINEST(LOG(Censal!D2:D12),LOG(Censal!C2:C12)^{1},TRUE,TRUE),3,1)</f>
         <v>0.98854325307456226</v>
       </c>
-      <c r="M11" s="35" cm="1">
+      <c r="M11" s="31" cm="1">
         <f t="array" ref="M11">INDEX(LINEST(LN(Censal!D2:D12),Censal!C2:C12^{1},TRUE,TRUE),3,1)</f>
         <v>0.98931118079013869</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="37" t="str">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="33" t="str">
         <f>IF(E11=MAX($E$11:$M$11),"✓","")</f>
         <v/>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="F12" s="33" t="str">
         <f t="shared" ref="F12:M12" si="0">IF(F11=MAX($E$11:$M$11),"✓","")</f>
         <v/>
       </c>
-      <c r="G12" s="37" t="str">
+      <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="37" t="str">
+      <c r="H12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="37" t="str">
+      <c r="I12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="37" t="str">
+      <c r="J12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>✓</v>
       </c>
-      <c r="K12" s="37" t="str">
+      <c r="K12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="37" t="str">
+      <c r="L12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="38" t="str">
+      <c r="M12" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+    </row>
+    <row r="14" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="23">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="M18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="10" t="str">
-        <f>Censal!$B$2</f>
-        <v>Municipio</v>
-      </c>
-      <c r="D18" s="10">
-        <f>MAX(Censal!C2:C102)+1</f>
-        <v>2019</v>
-      </c>
-      <c r="E18" s="3">
-        <f>ROUND($E$4*$D18+$E$5,0)</f>
-        <v>104463</v>
-      </c>
-      <c r="F18" s="3">
-        <f>ROUND($F$4*$D18^2+$F$5*$D18+$F$6,0)</f>
-        <v>130708</v>
-      </c>
-      <c r="G18" s="3">
-        <f>ROUND($G$4*$D18^3+$G$5*$D18^2+$G$6*$D18+$G$7,0)</f>
-        <v>133483</v>
-      </c>
-      <c r="H18" s="3">
-        <f>ROUND($H$4*$D18^4+$H$5*$D18^3+$H$6*$D18^2+$H$7*$D18+$H$8,0)</f>
-        <v>131597</v>
-      </c>
-      <c r="I18" s="3">
-        <f>ROUND($I$4*$D18^5+$I$5*$D18^4+$I$6*$D18^3+$I$7*$D18^2+$I$8*$D18+$I$9,0)</f>
-        <v>131579</v>
-      </c>
-      <c r="J18" s="3">
-        <f>ROUND($J$4*$D18^6+$J$5*$D18^5+$J$6*$D18^4+$J$7*$D18^3+$J$8*$D18^2+$J$9*$D18+$J$10,0)</f>
-        <v>131561</v>
-      </c>
-      <c r="K18" s="3">
-        <f>ROUND($K$4*LN(D18)+$K$5,0)</f>
-        <v>103735</v>
-      </c>
-      <c r="L18" s="3">
-        <f>ROUND(10^$L$5*$D18^$L$4,0)</f>
-        <v>138495</v>
-      </c>
-      <c r="M18" s="4">
-        <f>ROUND($M$5*EXP($M$4*$D18),0)</f>
-        <v>140562</v>
-      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
-        <v>16</v>
+      <c r="B19" s="79" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="10" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" ref="D19:D28" si="1">D18+$C$16</f>
-        <v>2024</v>
+        <f>MAX(Censal!C2:C102)+1</f>
+        <v>2019</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ref="E19:E28" si="2">ROUND($E$4*$D19+$E$5,0)</f>
-        <v>109807</v>
+        <f>ROUND($E$4*$D19+$E$5,0)</f>
+        <v>104463</v>
       </c>
       <c r="F19" s="3">
         <f>ROUND($F$4*$D19^2+$F$5*$D19+$F$6,0)</f>
-        <v>143634</v>
+        <v>130708</v>
       </c>
       <c r="G19" s="3">
         <f>ROUND($G$4*$D19^3+$G$5*$D19^2+$G$6*$D19+$G$7,0)</f>
-        <v>148170</v>
+        <v>133483</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" ref="H19:H28" si="3">ROUND($H$4*$D19^4+$H$5*$D19^3+$H$6*$D19^2+$H$7*$D19+$H$8,0)</f>
-        <v>143320</v>
+        <f>ROUND($H$4*$D19^4+$H$5*$D19^3+$H$6*$D19^2+$H$7*$D19+$H$8,0)</f>
+        <v>131597</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" ref="I19:I28" si="4">ROUND($I$4*$D19^5+$I$5*$D19^4+$I$6*$D19^3+$I$7*$D19^2+$I$8*$D19+$I$9,0)</f>
-        <v>143240</v>
+        <f>ROUND($I$4*$D19^5+$I$5*$D19^4+$I$6*$D19^3+$I$7*$D19^2+$I$8*$D19+$I$9,0)</f>
+        <v>131579</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19:J28" si="5">ROUND($J$4*$D19^6+$J$5*$D19^5+$J$6*$D19^4+$J$7*$D19^3+$J$8*$D19^2+$J$9*$D19+$J$10,0)</f>
-        <v>143158</v>
+        <f>ROUND($J$4*$D19^6+$J$5*$D19^5+$J$6*$D19^4+$J$7*$D19^3+$J$8*$D19^2+$J$9*$D19+$J$10,0)</f>
+        <v>131561</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" ref="K19:K28" si="6">ROUND($K$4*LN(D19)+$K$5,0)</f>
-        <v>108905</v>
+        <f>ROUND($K$4*LN(D19)+$K$5,0)</f>
+        <v>103735</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:L28" si="7">ROUND(10^$L$5*$D19^$L$4,0)</f>
-        <v>158324</v>
+        <f>ROUND(10^$L$5*$D19^$L$4,0)</f>
+        <v>138495</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" ref="M19:M28" si="8">ROUND($M$5*EXP($M$4*$D19),0)</f>
-        <v>161350</v>
+        <f>ROUND($M$5*EXP($M$4*$D19),0)</f>
+        <v>140562</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="20" t="s">
-        <v>16</v>
+      <c r="B20" s="20" t="str">
+        <f>B19</f>
+        <v>Proyectada</v>
       </c>
       <c r="C20" s="10" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="1"/>
-        <v>2029</v>
+        <f t="shared" ref="D20:D29" si="1">D19+$C$17</f>
+        <v>2024</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="2"/>
-        <v>115152</v>
+        <f t="shared" ref="E20:E29" si="2">ROUND($E$4*$D20+$E$5,0)</f>
+        <v>109807</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20:F28" si="9">ROUND($F$4*$D20^2+$F$5*$D20+$F$6,0)</f>
-        <v>157201</v>
+        <f>ROUND($F$4*$D20^2+$F$5*$D20+$F$6,0)</f>
+        <v>143634</v>
       </c>
       <c r="G20" s="3">
         <f>ROUND($G$4*$D20^3+$G$5*$D20^2+$G$6*$D20+$G$7,0)</f>
-        <v>163883</v>
+        <v>148170</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>154772</v>
+        <f t="shared" ref="H20:H29" si="3">ROUND($H$4*$D20^4+$H$5*$D20^3+$H$6*$D20^2+$H$7*$D20+$H$8,0)</f>
+        <v>143320</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="4"/>
-        <v>154585</v>
+        <f t="shared" ref="I20:I29" si="4">ROUND($I$4*$D20^5+$I$5*$D20^4+$I$6*$D20^3+$I$7*$D20^2+$I$8*$D20+$I$9,0)</f>
+        <v>143240</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="5"/>
-        <v>154394</v>
+        <f t="shared" ref="J20:J29" si="5">ROUND($J$4*$D20^6+$J$5*$D20^5+$J$6*$D20^4+$J$7*$D20^3+$J$8*$D20^2+$J$9*$D20+$J$10,0)</f>
+        <v>143158</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="6"/>
-        <v>114063</v>
+        <f t="shared" ref="K20:K29" si="6">ROUND($K$4*LN(D20)+$K$5,0)</f>
+        <v>108905</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="7"/>
-        <v>180932</v>
+        <f t="shared" ref="L20:L29" si="7">ROUND(10^$L$5*$D20^$L$4,0)</f>
+        <v>158324</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="8"/>
-        <v>185211</v>
+        <f t="shared" ref="M20:M29" si="8">ROUND($M$5*EXP($M$4*$D20),0)</f>
+        <v>161350</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="20" t="s">
-        <v>16</v>
+      <c r="B21" s="20" t="str">
+        <f t="shared" ref="B21:B29" si="9">B20</f>
+        <v>Proyectada</v>
       </c>
       <c r="C21" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -5373,48 +7795,49 @@
       </c>
       <c r="D21" s="10">
         <f t="shared" si="1"/>
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>120496</v>
+        <v>115152</v>
       </c>
       <c r="F21" s="3">
-        <f>ROUND($F$4*$D21^2+$F$5*$D21+$F$6,0)</f>
-        <v>171410</v>
+        <f t="shared" ref="F21:F29" si="10">ROUND($F$4*$D21^2+$F$5*$D21+$F$6,0)</f>
+        <v>157201</v>
       </c>
       <c r="G21" s="3">
         <f>ROUND($G$4*$D21^3+$G$5*$D21^2+$G$6*$D21+$G$7,0)</f>
-        <v>180654</v>
+        <v>163883</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>165728</v>
+        <v>154772</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="4"/>
-        <v>165375</v>
+        <v>154585</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="5"/>
-        <v>165012</v>
+        <v>154394</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="6"/>
-        <v>119207</v>
+        <v>114063</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="7"/>
-        <v>206701</v>
+        <v>180932</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="8"/>
-        <v>212602</v>
+        <v>185211</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="20" t="s">
-        <v>16</v>
+      <c r="B22" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
       </c>
       <c r="C22" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -5422,48 +7845,49 @@
       </c>
       <c r="D22" s="10">
         <f t="shared" si="1"/>
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
-        <v>125841</v>
+        <v>120496</v>
       </c>
       <c r="F22" s="3">
         <f>ROUND($F$4*$D22^2+$F$5*$D22+$F$6,0)</f>
-        <v>186260</v>
+        <v>171410</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22:G28" si="10">ROUND($G$4*$D22^3+$G$5*$D22^2+$G$6*$D22+$G$7,0)</f>
-        <v>198514</v>
+        <f>ROUND($G$4*$D22^3+$G$5*$D22^2+$G$6*$D22+$G$7,0)</f>
+        <v>180654</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>175942</v>
+        <v>165728</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="4"/>
-        <v>175346</v>
+        <v>165375</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="5"/>
-        <v>174731</v>
+        <v>165012</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="6"/>
-        <v>124339</v>
+        <v>119207</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="7"/>
-        <v>236062</v>
+        <v>206701</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="8"/>
-        <v>244043</v>
+        <v>212602</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="20" t="s">
-        <v>16</v>
+      <c r="B23" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
       </c>
       <c r="C23" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -5471,48 +7895,49 @@
       </c>
       <c r="D23" s="10">
         <f t="shared" si="1"/>
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>131185</v>
+        <v>125841</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="9"/>
-        <v>201751</v>
+        <f>ROUND($F$4*$D23^2+$F$5*$D23+$F$6,0)</f>
+        <v>186260</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="10"/>
-        <v>217493</v>
+        <f t="shared" ref="G23:G29" si="11">ROUND($G$4*$D23^3+$G$5*$D23^2+$G$6*$D23+$G$7,0)</f>
+        <v>198514</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>185149</v>
+        <v>175942</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="4"/>
-        <v>184212</v>
+        <v>175346</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="5"/>
-        <v>183241</v>
+        <v>174731</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="6"/>
-        <v>129459</v>
+        <v>124339</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="7"/>
-        <v>269507</v>
+        <v>236062</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="8"/>
-        <v>280134</v>
+        <v>244043</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="20" t="s">
-        <v>16</v>
+      <c r="B24" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
       </c>
       <c r="C24" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -5520,48 +7945,49 @@
       </c>
       <c r="D24" s="10">
         <f t="shared" si="1"/>
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>136529</v>
+        <v>131185</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="9"/>
-        <v>217884</v>
+        <f t="shared" si="10"/>
+        <v>201751</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="10"/>
-        <v>237623</v>
+        <f t="shared" si="11"/>
+        <v>217493</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>193064</v>
+        <v>185149</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="4"/>
-        <v>191663</v>
+        <v>184212</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="5"/>
-        <v>190208</v>
+        <v>183241</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="6"/>
-        <v>134566</v>
+        <v>129459</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="7"/>
-        <v>307590</v>
+        <v>269507</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="8"/>
-        <v>321563</v>
+        <v>280134</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="20" t="s">
-        <v>16</v>
+      <c r="B25" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
       </c>
       <c r="C25" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -5569,48 +7995,49 @@
       </c>
       <c r="D25" s="10">
         <f t="shared" si="1"/>
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="2"/>
-        <v>141874</v>
+        <v>136529</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="9"/>
-        <v>234658</v>
+        <f t="shared" si="10"/>
+        <v>217884</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="10"/>
-        <v>258934</v>
+        <f t="shared" si="11"/>
+        <v>237623</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>199381</v>
+        <v>193064</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="4"/>
-        <v>197366</v>
+        <v>191663</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="5"/>
-        <v>195269</v>
+        <v>190208</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="6"/>
-        <v>139660</v>
+        <v>134566</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="7"/>
-        <v>350942</v>
+        <v>307590</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="8"/>
-        <v>369118</v>
+        <v>321563</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="20" t="s">
-        <v>16</v>
+      <c r="B26" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
       </c>
       <c r="C26" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -5618,48 +8045,49 @@
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="2"/>
-        <v>147218</v>
+        <v>141874</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="9"/>
-        <v>252073</v>
+        <f t="shared" si="10"/>
+        <v>234658</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="10"/>
-        <v>281458</v>
+        <f t="shared" si="11"/>
+        <v>258934</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>203776</v>
+        <v>199381</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="4"/>
-        <v>200966</v>
+        <v>197366</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="5"/>
-        <v>198035</v>
+        <v>195269</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="6"/>
-        <v>144742</v>
+        <v>139660</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="7"/>
-        <v>400276</v>
+        <v>350942</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="8"/>
-        <v>423706</v>
+        <v>369118</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B27" s="20" t="s">
-        <v>16</v>
+      <c r="B27" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
       </c>
       <c r="C27" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -5667,148 +8095,629 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>152563</v>
+        <v>147218</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="9"/>
-        <v>270130</v>
+        <f t="shared" si="10"/>
+        <v>252073</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="10"/>
-        <v>305225</v>
+        <f t="shared" si="11"/>
+        <v>281458</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>205903</v>
+        <v>203776</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="4"/>
-        <v>202083</v>
+        <v>200966</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="5"/>
-        <v>198088</v>
+        <v>198035</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="6"/>
-        <v>149812</v>
+        <v>144742</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="7"/>
-        <v>456398</v>
+        <v>400276</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="8"/>
-        <v>486367</v>
+        <v>423706</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="11" t="str">
+      <c r="B28" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
+      </c>
+      <c r="C28" s="10" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="2"/>
+        <v>152563</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="10"/>
+        <v>270130</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="11"/>
+        <v>305225</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="3"/>
+        <v>205903</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="4"/>
+        <v>202083</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="5"/>
+        <v>198088</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="6"/>
+        <v>149812</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="7"/>
+        <v>456398</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="8"/>
+        <v>486367</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B29" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>Proyectada</v>
+      </c>
+      <c r="C29" s="11" t="str">
+        <f>Censal!$B$2</f>
+        <v>Municipio</v>
+      </c>
+      <c r="D29" s="11">
         <f t="shared" si="1"/>
         <v>2069</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <f t="shared" si="2"/>
         <v>157907</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="9"/>
+      <c r="F29" s="5">
+        <f t="shared" si="10"/>
         <v>288828</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="10"/>
+      <c r="G29" s="5">
+        <f t="shared" si="11"/>
         <v>330265</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <f t="shared" si="3"/>
         <v>205397</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I29" s="5">
         <f t="shared" si="4"/>
         <v>200313</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <f t="shared" si="5"/>
         <v>194982</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K29" s="5">
         <f t="shared" si="6"/>
         <v>154869</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L29" s="5">
         <f t="shared" si="7"/>
         <v>520225</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M29" s="6">
         <f t="shared" si="8"/>
         <v>558295</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="367.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="31"/>
-    </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D30" s="16"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D31" s="16"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="str">
-        <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D28-D18," años")</f>
-        <v>Dane - Población censal Municipio y población proyectada a 50 años</v>
+        <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," años con diferentes tendencias")</f>
+        <v>DANE - Población censal Municipio y población proyectada a 50 años con diferentes tendencias</v>
       </c>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="2" t="str">
+        <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," para el ajuste seleccionado")</f>
+        <v>DANE - Población censal Municipio y población proyectada a 50 para el ajuste seleccionado</v>
+      </c>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="str">
+        <f>_xlfn.CONCAT(Censal!A2," - Población censal municipal")</f>
+        <v>DANE - Población censal municipal</v>
+      </c>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:C13"/>
+    <mergeCell ref="B3:C14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.23046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.3046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.765625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="str">
+        <f>Censal!A1</f>
+        <v>Fuente</v>
+      </c>
+      <c r="B1" s="13" t="str">
+        <f>Censal!B1</f>
+        <v>Zona</v>
+      </c>
+      <c r="C1" s="13" t="str">
+        <f>Censal!C1</f>
+        <v>Fecha</v>
+      </c>
+      <c r="D1" s="13" t="str">
+        <f>Censal!D1</f>
+        <v>PTotal</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="str">
+        <f>Censal!A2</f>
+        <v>DANE</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Censal!B2</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C2" s="2">
+        <f>Censal!C2</f>
+        <v>1905</v>
+      </c>
+      <c r="D2" s="2">
+        <f>Censal!D2</f>
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
+        <f>Censal!A3</f>
+        <v>DANE</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Censal!B3</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C3" s="2">
+        <f>Censal!C3</f>
+        <v>1928</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Censal!D3</f>
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f>Censal!A4</f>
+        <v>DANE</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>Censal!B4</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C4" s="2">
+        <f>Censal!C4</f>
+        <v>1938</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Censal!D4</f>
+        <v>12273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>Censal!A5</f>
+        <v>DANE</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Censal!B5</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C5" s="2">
+        <f>Censal!C5</f>
+        <v>1951</v>
+      </c>
+      <c r="D5" s="2">
+        <f>Censal!D5</f>
+        <v>20628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
+        <f>Censal!A6</f>
+        <v>DANE</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>Censal!B6</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C6" s="2">
+        <f>Censal!C6</f>
+        <v>1964</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Censal!D6</f>
+        <v>27775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
+        <f>Censal!A7</f>
+        <v>DANE</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Censal!B7</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Censal!C7</f>
+        <v>1973</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Censal!D7</f>
+        <v>39836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
+        <f>Censal!A8</f>
+        <v>DANE</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>Censal!B8</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C8" s="2">
+        <f>Censal!C8</f>
+        <v>1985</v>
+      </c>
+      <c r="D8" s="2">
+        <f>Censal!D8</f>
+        <v>60202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
+        <f>Censal!A9</f>
+        <v>DANE</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>Censal!B9</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C9" s="2">
+        <f>Censal!C9</f>
+        <v>1993</v>
+      </c>
+      <c r="D9" s="2">
+        <f>Censal!D9</f>
+        <v>69695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
+        <f>Censal!A10</f>
+        <v>DANE</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>Censal!B10</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C10" s="2">
+        <f>Censal!C10</f>
+        <v>1995</v>
+      </c>
+      <c r="D10" s="2">
+        <f>Censal!D10</f>
+        <v>78923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
+        <f>Censal!A11</f>
+        <v>DANE</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>Censal!B11</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C11" s="2">
+        <f>Censal!C11</f>
+        <v>2005</v>
+      </c>
+      <c r="D11" s="2">
+        <f>Censal!D11</f>
+        <v>100038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
+        <f>Censal!A12</f>
+        <v>DANE</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>Censal!B12</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C12" s="2">
+        <f>Censal!C12</f>
+        <v>2018</v>
+      </c>
+      <c r="D12" s="2">
+        <f>Censal!D12</f>
+        <v>128968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="str">
+        <f>ProyectadaTotal!B19</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>ProyectadaTotal!C19</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C13" s="2">
+        <f>ProyectadaTotal!D19</f>
+        <v>2019</v>
+      </c>
+      <c r="D13" s="2">
+        <f>ProyectadaTotal!F19</f>
+        <v>130708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="str">
+        <f>ProyectadaTotal!B20</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>ProyectadaTotal!C20</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C14" s="2">
+        <f>ProyectadaTotal!D20</f>
+        <v>2024</v>
+      </c>
+      <c r="D14" s="2">
+        <f>ProyectadaTotal!F20</f>
+        <v>143634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="str">
+        <f>ProyectadaTotal!B21</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>ProyectadaTotal!C21</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C15" s="2">
+        <f>ProyectadaTotal!D21</f>
+        <v>2029</v>
+      </c>
+      <c r="D15" s="2">
+        <f>ProyectadaTotal!F21</f>
+        <v>157201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="str">
+        <f>ProyectadaTotal!B22</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>ProyectadaTotal!C22</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C16" s="2">
+        <f>ProyectadaTotal!D22</f>
+        <v>2034</v>
+      </c>
+      <c r="D16" s="2">
+        <f>ProyectadaTotal!F22</f>
+        <v>171410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="str">
+        <f>ProyectadaTotal!B23</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>ProyectadaTotal!C23</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ProyectadaTotal!D23</f>
+        <v>2039</v>
+      </c>
+      <c r="D17" s="2">
+        <f>ProyectadaTotal!F23</f>
+        <v>186260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="str">
+        <f>ProyectadaTotal!B24</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>ProyectadaTotal!C24</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C18" s="2">
+        <f>ProyectadaTotal!D24</f>
+        <v>2044</v>
+      </c>
+      <c r="D18" s="2">
+        <f>ProyectadaTotal!F24</f>
+        <v>201751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="str">
+        <f>ProyectadaTotal!B25</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>ProyectadaTotal!C25</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C19" s="2">
+        <f>ProyectadaTotal!D25</f>
+        <v>2049</v>
+      </c>
+      <c r="D19" s="2">
+        <f>ProyectadaTotal!F25</f>
+        <v>217884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="str">
+        <f>ProyectadaTotal!B26</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>ProyectadaTotal!C26</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C20" s="2">
+        <f>ProyectadaTotal!D26</f>
+        <v>2054</v>
+      </c>
+      <c r="D20" s="2">
+        <f>ProyectadaTotal!F26</f>
+        <v>234658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="str">
+        <f>ProyectadaTotal!B27</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>ProyectadaTotal!C27</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C21" s="2">
+        <f>ProyectadaTotal!D27</f>
+        <v>2059</v>
+      </c>
+      <c r="D21" s="2">
+        <f>ProyectadaTotal!F27</f>
+        <v>252073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="str">
+        <f>ProyectadaTotal!B28</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>ProyectadaTotal!C28</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C22" s="2">
+        <f>ProyectadaTotal!D28</f>
+        <v>2064</v>
+      </c>
+      <c r="D22" s="2">
+        <f>ProyectadaTotal!F28</f>
+        <v>270130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="str">
+        <f>ProyectadaTotal!B29</f>
+        <v>Proyectada</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>ProyectadaTotal!C29</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C23" s="2">
+        <f>ProyectadaTotal!D29</f>
+        <v>2069</v>
+      </c>
+      <c r="D23" s="2">
+        <f>ProyectadaTotal!F29</f>
+        <v>288828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9307E19F-4D63-43DF-809D-A0846A576EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7757D-E71D-40F8-AA30-ED54F4939309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -5825,7 +5825,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B74D3F2C-D5F1-41AE-ACE4-DFC0B9A95345}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -5837,7 +5837,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6944,7 +6944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF85B67-A9CB-4F86-9CEB-D63DBE20F700}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
@@ -7231,8 +7231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -8289,7 +8289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>

--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7757D-E71D-40F8-AA30-ED54F4939309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F33A3-8452-49B9-A57E-32F7149E6630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Logarítmica</t>
   </si>
@@ -391,33 +391,6 @@
   </si>
   <si>
     <t>Tendencias y constantes</t>
-  </si>
-  <si>
-    <t>ProLineal</t>
-  </si>
-  <si>
-    <t>ProPol2</t>
-  </si>
-  <si>
-    <t>ProPol3</t>
-  </si>
-  <si>
-    <t>ProPol4</t>
-  </si>
-  <si>
-    <t>ProPol5</t>
-  </si>
-  <si>
-    <t>ProPol6</t>
-  </si>
-  <si>
-    <t>ProLog</t>
-  </si>
-  <si>
-    <t>ProPot</t>
-  </si>
-  <si>
-    <t>ProExp</t>
   </si>
   <si>
     <t>PT0_6</t>
@@ -1971,7 +1944,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProLineal</c:v>
+                  <c:v>Lineal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2090,7 +2063,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProPol2</c:v>
+                  <c:v>Polinomio grado 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2107,6 +2080,74 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-4271-4B8C-B6A9-4BA10104E465}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
@@ -2207,7 +2248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProPol3</c:v>
+                  <c:v>Polinomio grado 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2224,6 +2265,74 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-4271-4B8C-B6A9-4BA10104E465}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
@@ -2324,7 +2433,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProPol4</c:v>
+                  <c:v>Polinomio grado 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2441,7 +2550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProPol5</c:v>
+                  <c:v>Polinomio grado 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2558,7 +2667,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProPol6</c:v>
+                  <c:v>Polinomio grado 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2675,7 +2784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProLog</c:v>
+                  <c:v>Logarítmica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2694,6 +2803,74 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4271-4B8C-B6A9-4BA10104E465}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
@@ -2794,7 +2971,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProPot</c:v>
+                  <c:v>Potencial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2813,6 +2990,74 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4271-4B8C-B6A9-4BA10104E465}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
@@ -2913,7 +3158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ProExp</c:v>
+                  <c:v>Exponencial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2932,6 +3177,74 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4271-4B8C-B6A9-4BA10104E465}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
@@ -3439,7 +3752,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.4228120485663263E-2"/>
           <c:y val="8.8334680797241008E-2"/>
-          <c:w val="9.7930170603877237E-2"/>
+          <c:w val="0.14463390442642707"/>
           <c:h val="0.28612045437499922"/>
         </c:manualLayout>
       </c:layout>
@@ -5825,7 +6138,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B74D3F2C-D5F1-41AE-ACE4-DFC0B9A95345}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -5837,7 +6150,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6209,9 +6522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -6244,60 +6557,60 @@
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>14</v>
@@ -6945,7 +7258,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -6964,7 +7277,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="63" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -6974,7 +7287,7 @@
     </row>
     <row r="4" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C4" s="35">
         <v>342</v>
@@ -6985,13 +7298,13 @@
         <v>976</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.4">
       <c r="B5" s="48"/>
       <c r="C5" s="64" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
@@ -7008,7 +7321,7 @@
     </row>
     <row r="7" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" s="40">
         <v>64</v>
@@ -7019,23 +7332,23 @@
         <v>342</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="48"/>
       <c r="C8" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
       <c r="F8" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C9" s="44">
         <f>C4-C7</f>
@@ -7046,22 +7359,22 @@
         <v>634</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C10" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C11" s="67" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -7078,17 +7391,17 @@
     </row>
     <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C13" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.4">
       <c r="B14" s="51" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C14" s="52">
         <f>D6+C12</f>
@@ -7099,7 +7412,7 @@
         <v>129424</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.4">
@@ -7110,7 +7423,7 @@
     </row>
     <row r="16" spans="2:7" s="56" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B16" s="56" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
@@ -7119,7 +7432,7 @@
     </row>
     <row r="17" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B17" s="58" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="58"/>
@@ -7132,7 +7445,7 @@
     </row>
     <row r="18" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B18" s="58" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -7145,7 +7458,7 @@
     </row>
     <row r="19" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B19" s="58" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
@@ -7158,7 +7471,7 @@
     </row>
     <row r="20" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
       <c r="B20" s="58" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -7171,7 +7484,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
@@ -7184,7 +7497,7 @@
     </row>
     <row r="22" spans="2:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="58" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
@@ -7197,7 +7510,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -7232,7 +7545,7 @@
   <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -7594,19 +7907,19 @@
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="76" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
       <c r="H13" s="77" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I13" s="77" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K13" s="77"/>
       <c r="L13" s="77"/>
@@ -7657,37 +7970,46 @@
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>39</v>
+      <c r="E18" s="8" t="str">
+        <f>E3</f>
+        <v>Lineal</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" ref="F18:M18" si="1">F3</f>
+        <v>Polinomio grado 2</v>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Polinomio grado 3</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Polinomio grado 4</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Polinomio grado 5</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Polinomio grado 6</v>
+      </c>
+      <c r="K18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Logarítmica</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Potencial</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Exponencial</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="79" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C19" s="10" t="str">
         <f>Censal!$B$2</f>
@@ -7744,11 +8066,11 @@
         <v>Municipio</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20:D29" si="1">D19+$C$17</f>
+        <f t="shared" ref="D20:D29" si="2">D19+$C$17</f>
         <v>2024</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ref="E20:E29" si="2">ROUND($E$4*$D20+$E$5,0)</f>
+        <f t="shared" ref="E20:E29" si="3">ROUND($E$4*$D20+$E$5,0)</f>
         <v>109807</v>
       </c>
       <c r="F20" s="3">
@@ -7760,33 +8082,33 @@
         <v>148170</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20:H29" si="3">ROUND($H$4*$D20^4+$H$5*$D20^3+$H$6*$D20^2+$H$7*$D20+$H$8,0)</f>
+        <f t="shared" ref="H20:H29" si="4">ROUND($H$4*$D20^4+$H$5*$D20^3+$H$6*$D20^2+$H$7*$D20+$H$8,0)</f>
         <v>143320</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I29" si="4">ROUND($I$4*$D20^5+$I$5*$D20^4+$I$6*$D20^3+$I$7*$D20^2+$I$8*$D20+$I$9,0)</f>
+        <f t="shared" ref="I20:I29" si="5">ROUND($I$4*$D20^5+$I$5*$D20^4+$I$6*$D20^3+$I$7*$D20^2+$I$8*$D20+$I$9,0)</f>
         <v>143240</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:J29" si="5">ROUND($J$4*$D20^6+$J$5*$D20^5+$J$6*$D20^4+$J$7*$D20^3+$J$8*$D20^2+$J$9*$D20+$J$10,0)</f>
+        <f t="shared" ref="J20:J29" si="6">ROUND($J$4*$D20^6+$J$5*$D20^5+$J$6*$D20^4+$J$7*$D20^3+$J$8*$D20^2+$J$9*$D20+$J$10,0)</f>
         <v>143158</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K29" si="6">ROUND($K$4*LN(D20)+$K$5,0)</f>
+        <f t="shared" ref="K20:K29" si="7">ROUND($K$4*LN(D20)+$K$5,0)</f>
         <v>108905</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" ref="L20:L29" si="7">ROUND(10^$L$5*$D20^$L$4,0)</f>
+        <f t="shared" ref="L20:L29" si="8">ROUND(10^$L$5*$D20^$L$4,0)</f>
         <v>158324</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20:M29" si="8">ROUND($M$5*EXP($M$4*$D20),0)</f>
+        <f t="shared" ref="M20:M29" si="9">ROUND($M$5*EXP($M$4*$D20),0)</f>
         <v>161350</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="20" t="str">
-        <f t="shared" ref="B21:B29" si="9">B20</f>
+        <f t="shared" ref="B21:B29" si="10">B20</f>
         <v>Proyectada</v>
       </c>
       <c r="C21" s="10" t="str">
@@ -7794,15 +8116,15 @@
         <v>Municipio</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115152</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ref="F21:F29" si="10">ROUND($F$4*$D21^2+$F$5*$D21+$F$6,0)</f>
+        <f t="shared" ref="F21:F29" si="11">ROUND($F$4*$D21^2+$F$5*$D21+$F$6,0)</f>
         <v>157201</v>
       </c>
       <c r="G21" s="3">
@@ -7810,33 +8132,33 @@
         <v>163883</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154772</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>154585</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154394</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114063</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>180932</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>185211</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C22" s="10" t="str">
@@ -7844,11 +8166,11 @@
         <v>Municipio</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2034</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120496</v>
       </c>
       <c r="F22" s="3">
@@ -7860,33 +8182,33 @@
         <v>180654</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165728</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165375</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165012</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>119207</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>206701</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>212602</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C23" s="10" t="str">
@@ -7894,11 +8216,11 @@
         <v>Municipio</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2039</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125841</v>
       </c>
       <c r="F23" s="3">
@@ -7906,37 +8228,37 @@
         <v>186260</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ref="G23:G29" si="11">ROUND($G$4*$D23^3+$G$5*$D23^2+$G$6*$D23+$G$7,0)</f>
+        <f t="shared" ref="G23:G29" si="12">ROUND($G$4*$D23^3+$G$5*$D23^2+$G$6*$D23+$G$7,0)</f>
         <v>198514</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>175942</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175346</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>174731</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124339</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>236062</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>244043</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C24" s="10" t="str">
@@ -7944,49 +8266,49 @@
         <v>Municipio</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2044</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131185</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>201751</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>217493</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>185149</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>184212</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>183241</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>129459</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>269507</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>280134</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C25" s="10" t="str">
@@ -7994,49 +8316,49 @@
         <v>Municipio</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2049</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136529</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>217884</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>237623</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>193064</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>191663</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190208</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134566</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>307590</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>321563</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C26" s="10" t="str">
@@ -8044,49 +8366,49 @@
         <v>Municipio</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2054</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141874</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>234658</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>258934</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>199381</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>197366</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>195269</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139660</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350942</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>369118</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C27" s="10" t="str">
@@ -8094,49 +8416,49 @@
         <v>Municipio</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2059</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147218</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>252073</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>281458</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203776</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200966</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>198035</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144742</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>400276</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>423706</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C28" s="10" t="str">
@@ -8144,49 +8466,49 @@
         <v>Municipio</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2064</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152563</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>270130</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>305225</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>205903</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202083</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>198088</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>149812</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>456398</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>486367</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C29" s="11" t="str">
@@ -8194,43 +8516,43 @@
         <v>Municipio</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2069</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157907</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>288828</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330265</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>205397</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200313</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>194982</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>154869</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>520225</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>558295</v>
       </c>
     </row>
@@ -8239,7 +8561,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D31" s="16"/>
     </row>
@@ -8289,7 +8611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>

--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F33A3-8452-49B9-A57E-32F7149E6630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA1505-39E4-44AE-96E4-EFB458E94DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -6138,7 +6138,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B74D3F2C-D5F1-41AE-ACE4-DFC0B9A95345}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6150,7 +6150,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6522,9 +6522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>

--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA1505-39E4-44AE-96E4-EFB458E94DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043905C7-10E8-4D0F-91EE-428516EF0FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -1341,7 +1341,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1367,8 +1367,9 @@
           <c:h val="0.81942890254509959"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1385,29 +1386,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:noFill/>
               <a:headEnd type="none" w="sm" len="sm"/>
               <a:tailEnd type="none" w="sm" len="sm"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1421,7 +1413,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1433,7 +1425,6 @@
                 <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1461,7 +1452,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>Censal!$C$2:$C$12</c:f>
               <c:numCache>
@@ -1502,8 +1493,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Censal!$D$2:$D$12</c:f>
               <c:numCache>
@@ -1544,8 +1535,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F4B0-49B4-880C-F3892B737B48}"/>
@@ -1560,15 +1550,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="663400352"/>
         <c:axId val="663400832"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="663400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2020"/>
-          <c:min val="1900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1592,7 +1581,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1621,7 +1610,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1653,7 +1642,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1667,8 +1656,11 @@
         </c:txPr>
         <c:crossAx val="663400832"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="663400832"/>
         <c:scaling>
@@ -1696,7 +1688,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1731,7 +1723,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1763,7 +1755,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1777,7 +1769,7 @@
         </c:txPr>
         <c:crossAx val="663400352"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1795,8 +1787,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.7342743884879392E-2"/>
           <c:y val="9.438090211408505E-2"/>
-          <c:w val="7.5961766715625309E-2"/>
-          <c:h val="5.6347222222222222E-2"/>
+          <c:w val="5.6926002717649783E-2"/>
+          <c:h val="4.4001626793847746E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1814,7 +1806,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1853,7 +1845,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
+        <a:defRPr sz="1200">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -1906,7 +1898,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2104,13 +2096,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2289,13 +2279,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2827,13 +2815,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3014,13 +3000,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3201,13 +3185,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3379,7 +3361,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3549,7 +3531,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3578,7 +3560,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -3610,7 +3592,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3653,7 +3635,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3688,7 +3670,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -3720,7 +3702,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3752,7 +3734,7 @@
           <c:yMode val="edge"/>
           <c:x val="8.4228120485663263E-2"/>
           <c:y val="8.8334680797241008E-2"/>
-          <c:w val="0.14463390442642707"/>
+          <c:w val="0.14878534743287594"/>
           <c:h val="0.28612045437499922"/>
         </c:manualLayout>
       </c:layout>
@@ -3771,7 +3753,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3810,7 +3792,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
+        <a:defRPr sz="1200">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -3863,7 +3845,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3943,7 +3925,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4179,7 +4161,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4208,7 +4190,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -4240,7 +4222,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4283,7 +4265,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4318,7 +4300,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -4350,7 +4332,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4401,7 +4383,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4440,7 +4422,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
+        <a:defRPr sz="1200">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -6150,7 +6132,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6522,7 +6504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>

--- a/activity/Population/PoblacionTotal_DANE.xlsx
+++ b/activity/Population/PoblacionTotal_DANE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043905C7-10E8-4D0F-91EE-428516EF0FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED2F57-7284-4BC3-8927-2B11C27C3E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -384,12 +384,6 @@
     <t>años después del último dato censal</t>
   </si>
   <si>
-    <t>2. Proyección de población</t>
-  </si>
-  <si>
-    <t>1. Análisis de tendencias</t>
-  </si>
-  <si>
     <t>Tendencias y constantes</t>
   </si>
   <si>
@@ -578,6 +572,12 @@
   <si>
     <t>PF60Max</t>
   </si>
+  <si>
+    <t>Análisis de tendencias</t>
+  </si>
+  <si>
+    <t>Proyección de población</t>
+  </si>
 </sst>
 </file>
 
@@ -586,7 +586,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +689,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -1038,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1056,15 +1062,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,14 +1265,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,7 +1338,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1361,9 +1358,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1605119667789055E-2"/>
+          <c:x val="8.6134772417260252E-2"/>
           <c:y val="6.7324885638903584E-2"/>
-          <c:w val="0.89472473907914352"/>
+          <c:w val="0.88019508632967225"/>
           <c:h val="0.81942890254509959"/>
         </c:manualLayout>
       </c:layout>
@@ -1413,7 +1410,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1550,7 +1547,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="50"/>
         <c:axId val="663400352"/>
         <c:axId val="663400832"/>
       </c:barChart>
@@ -1581,7 +1578,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1610,7 +1607,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1642,7 +1639,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1688,7 +1685,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1723,7 +1720,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1755,7 +1752,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1787,8 +1784,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.7342743884879392E-2"/>
           <c:y val="9.438090211408505E-2"/>
-          <c:w val="5.6926002717649783E-2"/>
-          <c:h val="4.4001626793847746E-2"/>
+          <c:w val="6.6414813904403708E-2"/>
+          <c:h val="4.9316996101956556E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1806,7 +1803,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1845,7 +1842,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1400">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -1898,7 +1895,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2100,7 +2097,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2283,7 +2280,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2819,7 +2816,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3004,7 +3001,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3189,7 +3186,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3349,6 +3346,28 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2257135476540377E-2"/>
+                  <c:y val="-5.2291928055596869E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-4271-4B8C-B6A9-4BA10104E465}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3361,7 +3380,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3531,7 +3550,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3560,7 +3579,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -3592,7 +3611,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3635,7 +3654,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -3670,7 +3689,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -3702,7 +3721,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3753,7 +3772,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3792,7 +3811,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1400">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -3845,7 +3864,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3925,7 +3944,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4161,7 +4180,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4190,7 +4209,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -4222,7 +4241,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4265,7 +4284,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4300,7 +4319,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -4332,7 +4351,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4383,7 +4402,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4422,7 +4441,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200">
+        <a:defRPr sz="1400">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -6108,7 +6127,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7719926C-FDFD-4B6F-9591-D15E2C7B4756}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6132,7 +6151,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6511,8 +6530,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.53515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.921875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.53515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.921875" style="12" customWidth="1"/>
     <col min="3" max="3" width="8.61328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.4609375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.61328125" style="2" customWidth="1"/>
@@ -6526,707 +6545,707 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="O1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="U1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>1905</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>7108</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="11" t="str">
         <f>$A$2</f>
         <v>DANE</v>
       </c>
-      <c r="B3" s="14" t="str">
+      <c r="B3" s="11" t="str">
         <f>$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>1928</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>11480</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="str">
+      <c r="A4" s="11" t="str">
         <f t="shared" ref="A4:A12" si="0">$A$2</f>
         <v>DANE</v>
       </c>
-      <c r="B4" s="14" t="str">
+      <c r="B4" s="11" t="str">
         <f t="shared" ref="B4:B12" si="1">$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>1938</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>12273</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B5" s="14" t="str">
+      <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>1951</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>20628</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="str">
+      <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>1964</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>27775</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="str">
+      <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B7" s="14" t="str">
+      <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>1973</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>39836</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="str">
+      <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>1985</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>60202</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="str">
+      <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B9" s="14" t="str">
+      <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>1993</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>69695</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="str">
+      <c r="A10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>1995</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>78923</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>2005</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>100038</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="str">
+      <c r="A12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DANE</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Municipio</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>2018</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>128968</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7240,265 +7259,265 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="20.4609375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" style="47"/>
-    <col min="4" max="4" width="5" style="47" customWidth="1"/>
-    <col min="5" max="5" width="18.3828125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="9.23046875" style="47"/>
-    <col min="7" max="7" width="20.4609375" style="47" customWidth="1"/>
-    <col min="8" max="8" width="2.69140625" style="47" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="47"/>
+    <col min="1" max="1" width="2.69140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="44"/>
+    <col min="4" max="4" width="5" style="44" customWidth="1"/>
+    <col min="5" max="5" width="18.3828125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="44"/>
+    <col min="7" max="7" width="20.4609375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="2.69140625" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="9.23046875" style="44"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="B2" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="4" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="32">
+        <v>342</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34">
+        <v>976</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="35">
+    </row>
+    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="B5" s="45"/>
+      <c r="C5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="2:7" ht="26.6" x14ac:dyDescent="0.4">
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="59">
+        <v>128968</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="B7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="37">
+        <v>64</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39">
         <v>342</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37">
-        <v>976</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-    </row>
-    <row r="6" spans="2:7" ht="26.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="48"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="62">
-        <v>128968</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="B7" s="48" t="s">
+      <c r="G7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="40">
-        <v>64</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42">
-        <v>342</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49" t="s">
-        <v>42</v>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="44">
+      <c r="B9" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="41">
         <f>C4-C7</f>
         <v>278</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="40">
         <f>F4-F7</f>
         <v>634</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>60</v>
+      <c r="G9" s="42" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C10" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49" t="s">
-        <v>42</v>
+      <c r="C10" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="C11" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="C12" s="59">
+      <c r="C12" s="56">
         <f>C9+F9</f>
         <v>912</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49" t="s">
-        <v>42</v>
+      <c r="C13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.4">
-      <c r="B14" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="52">
+      <c r="B14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="49">
         <f>D6+C12</f>
         <v>129880</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="50">
         <f>(D6+C14)/2</f>
         <v>129424</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>59</v>
+      <c r="G14" s="47" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="2:7" s="56" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B16" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B17" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="55">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="2:7" s="53" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B17" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="52">
         <f>(C12/F14)*1000</f>
         <v>7.0466065026579301</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B18" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="55">
+    <row r="18" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="52">
         <f>(C4/F14)*1000</f>
         <v>2.6424774384967242</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B19" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="55">
+    <row r="19" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B19" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="52">
         <f>(C7/F14)*1000</f>
         <v>0.49449870194090745</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="54" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B20" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="55">
+    <row r="20" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="52">
         <f>G18-G19</f>
         <v>2.1479787365558169</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="55">
+      <c r="B21" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="52">
         <f>(F4/F14)*1000</f>
         <v>7.5411052045988383</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="55">
+      <c r="B22" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="52">
         <f>(F7/F14)*1000</f>
         <v>2.6424774384967242</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="55">
+      <c r="B23" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="52">
         <f>G21-G22</f>
         <v>4.8986277661021145</v>
       </c>
@@ -7526,8 +7545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -7549,455 +7568,455 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B3" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26" cm="1">
+      <c r="E4" s="23" cm="1">
         <f t="array" ref="E4">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1},TRUE,TRUE),1,1)</f>
         <v>1068.8896078952812</v>
       </c>
-      <c r="F4" s="26" cm="1">
+      <c r="F4" s="23" cm="1">
         <f t="array" ref="F4">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2},TRUE,TRUE),1,1)</f>
         <v>12.827695953202175</v>
       </c>
-      <c r="G4" s="26" cm="1">
+      <c r="G4" s="23" cm="1">
         <f t="array" ref="G4">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3},TRUE,TRUE),1,1)</f>
         <v>4.1196420263673511E-2</v>
       </c>
-      <c r="H4" s="26" cm="1">
+      <c r="H4" s="23" cm="1">
         <f t="array" ref="H4">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4},TRUE,TRUE),1,1)</f>
         <v>-1.3317519288416713E-3</v>
       </c>
-      <c r="I4" s="26" cm="1">
+      <c r="I4" s="23" cm="1">
         <f t="array" ref="I4">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),1,1)</f>
         <v>-5.4869440845746627E-7</v>
       </c>
-      <c r="J4" s="26" cm="1">
+      <c r="J4" s="23" cm="1">
         <f t="array" ref="J4">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),1,1)</f>
         <v>-2.3515680300377886E-10</v>
       </c>
-      <c r="K4" s="26" cm="1">
+      <c r="K4" s="23" cm="1">
         <f t="array" ref="K4">INDEX(LINEST(Censal!D2:D12,LN(Censal!C2:C12)^{1},TRUE,TRUE),1,1)</f>
         <v>2090260.705442871</v>
       </c>
-      <c r="L4" s="26" cm="1">
+      <c r="L4" s="23" cm="1">
         <f t="array" ref="L4">INDEX(LINEST(LOG(Censal!D2:D12),LOG(Censal!C2:C12)^{1},TRUE,TRUE),1,1)</f>
         <v>54.099004455533894</v>
       </c>
-      <c r="M4" s="27" cm="1">
+      <c r="M4" s="24" cm="1">
         <f t="array" ref="M4">INDEX(LINEST(LN(Censal!D2:D12),Censal!C2:C12^{1},TRUE,TRUE),1,1)</f>
         <v>2.7584744345047776E-2</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="26" cm="1">
+      <c r="E5" s="23" cm="1">
         <f t="array" ref="E5">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1},TRUE,TRUE),1,2)</f>
         <v>-2053625.3144520286</v>
       </c>
-      <c r="F5" s="26" cm="1">
+      <c r="F5" s="23" cm="1">
         <f t="array" ref="F5">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2},TRUE,TRUE),1,2)</f>
         <v>-49277.224406103138</v>
       </c>
-      <c r="G5" s="26" cm="1">
+      <c r="G5" s="23" cm="1">
         <f t="array" ref="G5">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3},TRUE,TRUE),1,2)</f>
         <v>-229.6068571495656</v>
       </c>
-      <c r="H5" s="26" cm="1">
+      <c r="H5" s="23" cm="1">
         <f t="array" ref="H5">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4},TRUE,TRUE),1,2)</f>
         <v>10.494779416960904</v>
       </c>
-      <c r="I5" s="26" cm="1">
+      <c r="I5" s="23" cm="1">
         <f t="array" ref="I5">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),1,2)</f>
         <v>4.052156618122936E-3</v>
       </c>
-      <c r="J5" s="26" cm="1">
+      <c r="J5" s="23" cm="1">
         <f t="array" ref="J5">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),1,2)</f>
         <v>1.6665884942592321E-6</v>
       </c>
-      <c r="K5" s="26" cm="1">
+      <c r="K5" s="23" cm="1">
         <f t="array" ref="K5">INDEX(LINEST(Censal!D2:D12,LN(Censal!C2:C12)^{1},TRUE,TRUE),1,2)</f>
         <v>-15803896.203817612</v>
       </c>
-      <c r="L5" s="26" cm="1">
+      <c r="L5" s="23" cm="1">
         <f t="array" ref="L5">INDEX(LINEST(LOG(Censal!D2:D12),LOG(Censal!C2:C12)^{1},TRUE,TRUE),1,2)</f>
         <v>-173.66315036251618</v>
       </c>
-      <c r="M5" s="27" cm="1">
+      <c r="M5" s="24" cm="1">
         <f t="array" ref="M5">EXP(INDEX(LINEST(LN(Censal!D2:D12),Censal!C2:C12^{1},TRUE,TRUE),1,2))</f>
         <v>9.12948054592919E-20</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="28" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" cm="1">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" cm="1">
         <f t="array" ref="F6">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2},TRUE,TRUE),1,3)</f>
         <v>47331104.805852465</v>
       </c>
-      <c r="G6" s="26" cm="1">
+      <c r="G6" s="23" cm="1">
         <f t="array" ref="G6">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3},TRUE,TRUE),1,3)</f>
         <v>426194.70708042441</v>
       </c>
-      <c r="H6" s="26" cm="1">
+      <c r="H6" s="23" cm="1">
         <f t="array" ref="H6">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4},TRUE,TRUE),1,3)</f>
         <v>-30995.952634018417</v>
       </c>
-      <c r="I6" s="26" cm="1">
+      <c r="I6" s="23" cm="1">
         <f t="array" ref="I6">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),1,3)</f>
         <v>-10.634250480639384</v>
       </c>
-      <c r="J6" s="26" cm="1">
+      <c r="J6" s="23" cm="1">
         <f t="array" ref="J6">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),1,3)</f>
         <v>-4.0989321729005945E-3</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" cm="1">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" cm="1">
         <f t="array" ref="G7">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3},TRUE,TRUE),1,4)</f>
         <v>-263446852.65696484</v>
       </c>
-      <c r="H7" s="26" cm="1">
+      <c r="H7" s="23" cm="1">
         <f t="array" ref="H7">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4},TRUE,TRUE),1,4)</f>
         <v>40664680.265539721</v>
       </c>
-      <c r="I7" s="26" cm="1">
+      <c r="I7" s="23" cm="1">
         <f t="array" ref="I7">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),1,4)</f>
         <v>10459.927419172162</v>
       </c>
-      <c r="J7" s="26" cm="1">
+      <c r="J7" s="23" cm="1">
         <f t="array" ref="J7">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),1,4)</f>
         <v>3.5825851027397562</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" cm="1">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" cm="1">
         <f t="array" ref="H8">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4},TRUE,TRUE),1,5)</f>
         <v>-19995666520.400028</v>
       </c>
-      <c r="I8" s="26" cm="1">
+      <c r="I8" s="23" cm="1">
         <f t="array" ref="I8">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),1,5)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="26" cm="1">
+      <c r="J8" s="23" cm="1">
         <f t="array" ref="J8">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),1,5)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" cm="1">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" cm="1">
         <f t="array" ref="I9">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),1,6)</f>
         <v>-4041902688.4870014</v>
       </c>
-      <c r="J9" s="26" cm="1">
+      <c r="J9" s="23" cm="1">
         <f t="array" ref="J9">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),1,6)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26" cm="1">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" cm="1">
         <f t="array" ref="J10">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),1,7)</f>
         <v>-1358474503.5952225</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="30" cm="1">
+      <c r="E11" s="27" cm="1">
         <f t="array" ref="E11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1},TRUE,TRUE),3,1)</f>
         <v>0.86416229902881492</v>
       </c>
-      <c r="F11" s="30" cm="1">
+      <c r="F11" s="27" cm="1">
         <f t="array" ref="F11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2},TRUE,TRUE),3,1)</f>
         <v>0.99578169141706463</v>
       </c>
-      <c r="G11" s="30" cm="1">
+      <c r="G11" s="27" cm="1">
         <f t="array" ref="G11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3},TRUE,TRUE),3,1)</f>
         <v>0.99727079529667062</v>
       </c>
-      <c r="H11" s="30" cm="1">
+      <c r="H11" s="27" cm="1">
         <f t="array" ref="H11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4},TRUE,TRUE),3,1)</f>
         <v>0.99835031110587535</v>
       </c>
-      <c r="I11" s="30" cm="1">
+      <c r="I11" s="27" cm="1">
         <f t="array" ref="I11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5},TRUE,TRUE),3,1)</f>
         <v>0.99835375871367793</v>
       </c>
-      <c r="J11" s="30" cm="1">
+      <c r="J11" s="27" cm="1">
         <f t="array" ref="J11">INDEX(LINEST(Censal!D2:D12,Censal!C2:C12^{1,2,3,4,5,6},TRUE,TRUE),3,1)</f>
         <v>0.99835710106693354</v>
       </c>
-      <c r="K11" s="30" cm="1">
+      <c r="K11" s="27" cm="1">
         <f t="array" ref="K11">INDEX(LINEST(Censal!D2:D12,LN(Censal!C2:C12)^{1},TRUE,TRUE),3,1)</f>
         <v>0.85852442999500456</v>
       </c>
-      <c r="L11" s="30" cm="1">
+      <c r="L11" s="27" cm="1">
         <f t="array" ref="L11">INDEX(LINEST(LOG(Censal!D2:D12),LOG(Censal!C2:C12)^{1},TRUE,TRUE),3,1)</f>
         <v>0.98854325307456226</v>
       </c>
-      <c r="M11" s="31" cm="1">
+      <c r="M11" s="28" cm="1">
         <f t="array" ref="M11">INDEX(LINEST(LN(Censal!D2:D12),Censal!C2:C12^{1},TRUE,TRUE),3,1)</f>
         <v>0.98931118079013869</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="33" t="str">
+      <c r="E12" s="30" t="str">
         <f>IF(E11=MAX($E$11:$M$11),"✓","")</f>
         <v/>
       </c>
-      <c r="F12" s="33" t="str">
+      <c r="F12" s="30" t="str">
         <f t="shared" ref="F12:M12" si="0">IF(F11=MAX($E$11:$M$11),"✓","")</f>
         <v/>
       </c>
-      <c r="G12" s="33" t="str">
+      <c r="G12" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="33" t="str">
+      <c r="H12" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="33" t="str">
+      <c r="I12" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="33" t="str">
+      <c r="J12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>✓</v>
       </c>
-      <c r="K12" s="33" t="str">
+      <c r="K12" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="33" t="str">
+      <c r="L12" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="34" t="str">
+      <c r="M12" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
     </row>
     <row r="14" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B18" s="7" t="s">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="14" t="str">
         <f>E3</f>
         <v>Lineal</v>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="14" t="str">
         <f t="shared" ref="F18:M18" si="1">F3</f>
         <v>Polinomio grado 2</v>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Polinomio grado 3</v>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Polinomio grado 4</v>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Polinomio grado 5</v>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Polinomio grado 6</v>
       </c>
-      <c r="K18" s="8" t="str">
+      <c r="K18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Logarítmica</v>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Potencial</v>
       </c>
-      <c r="M18" s="9" t="str">
+      <c r="M18" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Exponencial</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="10" t="str">
+      <c r="B19" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <f>MAX(Censal!C2:C102)+1</f>
         <v>2019</v>
       </c>
@@ -8039,15 +8058,15 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="17" t="str">
         <f>B19</f>
         <v>Proyectada</v>
       </c>
-      <c r="C20" s="10" t="str">
+      <c r="C20" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <f t="shared" ref="D20:D29" si="2">D19+$C$17</f>
         <v>2024</v>
       </c>
@@ -8089,15 +8108,15 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="17" t="str">
         <f t="shared" ref="B21:B29" si="10">B20</f>
         <v>Proyectada</v>
       </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
@@ -8139,15 +8158,15 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="17" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C22" s="10" t="str">
+      <c r="C22" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <f t="shared" si="2"/>
         <v>2034</v>
       </c>
@@ -8189,15 +8208,15 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="20" t="str">
+      <c r="B23" s="17" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <f t="shared" si="2"/>
         <v>2039</v>
       </c>
@@ -8239,15 +8258,15 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="20" t="str">
+      <c r="B24" s="17" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C24" s="10" t="str">
+      <c r="C24" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <f t="shared" si="2"/>
         <v>2044</v>
       </c>
@@ -8289,15 +8308,15 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="20" t="str">
+      <c r="B25" s="17" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C25" s="10" t="str">
+      <c r="C25" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <f t="shared" si="2"/>
         <v>2049</v>
       </c>
@@ -8339,15 +8358,15 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="20" t="str">
+      <c r="B26" s="17" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C26" s="10" t="str">
+      <c r="C26" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <f t="shared" si="2"/>
         <v>2054</v>
       </c>
@@ -8389,15 +8408,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B27" s="20" t="str">
+      <c r="B27" s="17" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C27" s="10" t="str">
+      <c r="C27" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <f t="shared" si="2"/>
         <v>2059</v>
       </c>
@@ -8439,15 +8458,15 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="20" t="str">
+      <c r="B28" s="17" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C28" s="10" t="str">
+      <c r="C28" s="7" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="7">
         <f t="shared" si="2"/>
         <v>2064</v>
       </c>
@@ -8489,15 +8508,15 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="18" t="str">
         <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
-      <c r="C29" s="11" t="str">
+      <c r="C29" s="8" t="str">
         <f>Censal!$B$2</f>
         <v>Municipio</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <f t="shared" si="2"/>
         <v>2069</v>
       </c>
@@ -8539,46 +8558,46 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D30" s="16"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="str">
         <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," años con diferentes tendencias")</f>
         <v>DANE - Población censal Municipio y población proyectada a 50 años con diferentes tendencias</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="str">
         <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," para el ajuste seleccionado")</f>
         <v>DANE - Población censal Municipio y población proyectada a 50 para el ajuste seleccionado</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="str">
         <f>_xlfn.CONCAT(Censal!A2," - Población censal municipal")</f>
         <v>DANE - Población censal municipal</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D35" s="16"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D36" s="16"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D37" s="16"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D38" s="16"/>
+      <c r="D38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8608,19 +8627,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="str">
+      <c r="A1" s="10" t="str">
         <f>Censal!A1</f>
         <v>Fuente</v>
       </c>
-      <c r="B1" s="13" t="str">
+      <c r="B1" s="10" t="str">
         <f>Censal!B1</f>
         <v>Zona</v>
       </c>
-      <c r="C1" s="13" t="str">
+      <c r="C1" s="10" t="str">
         <f>Censal!C1</f>
         <v>Fecha</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="D1" s="10" t="str">
         <f>Censal!D1</f>
         <v>PTotal</v>
       </c>
